--- a/matlab/logDataProcess/ipb1-29.xlsx
+++ b/matlab/logDataProcess/ipb1-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>reactor</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>dc-h2</t>
+  </si>
+  <si>
+    <t>seq</t>
+  </si>
+  <si>
+    <t>file</t>
   </si>
 </sst>
 </file>
@@ -997,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1008,21 +1014,22 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="7.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1033,43 +1040,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1079,44 +1089,47 @@
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>1</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>0.86</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>1.5940000000000001</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>170</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1126,44 +1139,47 @@
       <c r="C3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>4</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>1</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>0.86</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>1.5940000000000001</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>171</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="O3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1173,44 +1189,47 @@
       <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>19</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>21</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>1</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>0.86</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>1.5940000000000001</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>171</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1220,51 +1239,55 @@
       <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>3</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>0.86</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>1.5940000000000001</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>173</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="O5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1272,19 +1295,22 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="O7" s="4"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L7" s="4"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1292,13 +1318,14 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L10" s="4"/>
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1306,30 +1333,34 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="O11" s="4"/>
-    </row>
-    <row r="12" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="4"/>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C12" s="7"/>
-      <c r="L12" s="1"/>
+      <c r="D12" s="7"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C13" s="7"/>
-      <c r="L13" s="1"/>
+      <c r="D13" s="7"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="C14" s="3"/>
-      <c r="O14" s="6"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D14" s="3"/>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1341,12 +1372,13 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1358,12 +1390,13 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1375,12 +1408,13 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1392,12 +1426,13 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1409,6 +1444,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/matlab/logDataProcess/ipb1-29.xlsx
+++ b/matlab/logDataProcess/ipb1-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>reactor</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>file</t>
+  </si>
+  <si>
+    <t>coreL</t>
   </si>
 </sst>
 </file>
@@ -1003,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1020,16 +1023,17 @@
     <col min="8" max="8" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1061,25 +1065,28 @@
         <v>12</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1111,25 +1118,28 @@
         <v>11</v>
       </c>
       <c r="K2" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="L2" s="1">
         <v>1</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>0.86</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>1.5940000000000001</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>170</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1161,25 +1171,28 @@
         <v>11</v>
       </c>
       <c r="K3" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="L3" s="1">
         <v>1</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>0.86</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>1.5940000000000001</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>171</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1211,25 +1224,28 @@
         <v>11</v>
       </c>
       <c r="K4" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="L4" s="1">
         <v>1</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>0.86</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>1.5940000000000001</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>171</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1261,29 +1277,32 @@
         <v>14</v>
       </c>
       <c r="K5" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="L5" s="1">
         <v>1</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>0.86</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>1.5940000000000001</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>173</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="P5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
@@ -1296,17 +1315,18 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="P7" s="4"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M7" s="4"/>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
@@ -1319,9 +1339,10 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-      <c r="P10" s="4"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M10" s="4"/>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
@@ -1334,29 +1355,30 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="4"/>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="P14" s="6"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
@@ -1373,8 +1395,9 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
@@ -1391,8 +1414,9 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
@@ -1409,8 +1433,9 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
@@ -1427,8 +1452,9 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
@@ -1445,6 +1471,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
